--- a/TestData/inter_test_data.xlsx
+++ b/TestData/inter_test_data.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8016" windowWidth="14808" xWindow="240" yWindow="108"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="API" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="注册接口用例" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="登录接口用例" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="查询博文用例" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="API" sheetId="1" r:id="rId1"/>
+    <sheet name="registerCase" sheetId="2" r:id="rId2"/>
+    <sheet name="loginCase" sheetId="3" r:id="rId3"/>
+    <sheet name="createCase" sheetId="4" r:id="rId4"/>
+    <sheet name="updateCase" sheetId="5" r:id="rId5"/>
+    <sheet name="queryCase" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="52">
   <si>
     <t>编号</t>
   </si>
@@ -43,48 +45,30 @@
     <t>register</t>
   </si>
   <si>
-    <t>http://39.106.41.11:8080/register/</t>
-  </si>
-  <si>
     <t>post</t>
   </si>
   <si>
     <t>form</t>
   </si>
   <si>
-    <t>注册接口用例</t>
-  </si>
-  <si>
     <t>y</t>
   </si>
   <si>
     <t>login</t>
   </si>
   <si>
-    <t>http://39.106.41.11:8080/login/</t>
-  </si>
-  <si>
-    <t>登录接口用例</t>
+    <t>create</t>
+  </si>
+  <si>
+    <t>updates</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
   <si>
     <t>query</t>
   </si>
   <si>
-    <t>http://39.106.41.11:8080/getBlogContent/</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>查询博文用例</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>RequestData</t>
   </si>
   <si>
@@ -109,7 +93,10 @@
     <t>ErrorInfo</t>
   </si>
   <si>
-    <t>{"username":"srsdcx01","password":"wcx123wac1","email":"wcx@qq.com"}</t>
+    <t>{"username":"srsdcx22","password":"wcx123wac1","email":"wcx@qq.com"}</t>
+  </si>
+  <si>
+    <t>{u'username': u'srsdcx22', u'code': u'01'}</t>
   </si>
   <si>
     <t>{"request":["username","password"],"response":["code"]}</t>
@@ -118,6 +105,12 @@
     <t>{"code":"00"}</t>
   </si>
   <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>{'code': u'01'}</t>
+  </si>
+  <si>
     <t>{"username":"wcd23x","password":"wcx123wac","email":"wcx@qq.com"}</t>
   </si>
   <si>
@@ -136,59 +129,102 @@
     <t>{"request":{"username":"register-&gt;1","password":"register-&gt;1"}}</t>
   </si>
   <si>
-    <t>{u'username': u'srsdcx01', u'code': u'01'}</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>{'code': u'01'}</t>
-  </si>
-  <si>
-    <t>{u'token': u'772adfdd53ed32279aedeb96a68cade6', u'code': u'00', u'userid': 48, u'login_time': u'2019-03-26 21:47:48'}</t>
+    <t xml:space="preserve">{"response":["userid", "token"]} </t>
+  </si>
+  <si>
+    <t>{'code': u'03'}</t>
+  </si>
+  <si>
+    <t>{"request":{"username":"register-&gt;2","password":"register-&gt;2"}}</t>
+  </si>
+  <si>
+    <t>{"response":{"userid":"login-&gt;1","token":"login-&gt;1"}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"request":["title", "content"]} </t>
+  </si>
+  <si>
+    <t>{"response":{"userid":"login-&gt;2","token":"login-&gt;2"}}</t>
+  </si>
+  <si>
+    <t>{"userid":"", "token": ""}</t>
+  </si>
+  <si>
+    <t>{"response":{"userid":"login","token":"login"}}</t>
+  </si>
+  <si>
+    <t>queryCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registerCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxxxxxxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxxxxxxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -210,22 +246,31 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="8" name="超链接" xfId="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -515,25 +560,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="3" min="3" width="15.88671875"/>
-    <col customWidth="1" max="5" min="4" width="16.109375"/>
-    <col customWidth="1" max="6" min="6" width="15.33203125"/>
+    <col min="3" max="3" width="43.88671875" customWidth="1"/>
+    <col min="4" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -556,338 +597,608 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="n">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="2" min="1" width="15.109375"/>
-    <col customWidth="1" max="3" min="3" width="13.6640625"/>
-    <col customWidth="1" max="4" min="4" width="29.77734375"/>
-    <col customWidth="1" max="5" min="5" width="13.6640625"/>
-    <col customWidth="1" max="6" min="6" width="14.21875"/>
-    <col customWidth="1" max="9" min="9" width="13.77734375"/>
+    <col min="1" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="55.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row customHeight="1" ht="70.8" r="2" spans="1:9">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:9" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" t="n">
+      <c r="B3" s="3"/>
+      <c r="C3">
         <v>200</v>
       </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
         <v>32</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="70.8" r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="3" t="n"/>
-      <c r="C3" t="n">
-        <v>200</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>36</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="15.88671875"/>
-    <col customWidth="1" max="2" min="2" width="18"/>
-    <col customWidth="1" max="3" min="3" width="15.6640625"/>
-    <col customWidth="1" max="4" min="4" width="30.21875"/>
-    <col customWidth="1" max="5" min="5" width="12.44140625"/>
-    <col customWidth="1" max="6" min="6" width="12.33203125"/>
-    <col customWidth="1" max="8" min="7" width="11.109375"/>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="8" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="99" r="2" spans="1:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C3">
         <v>200</v>
       </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="4" max="4" width="49.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="2" min="1" width="12.6640625"/>
-    <col customWidth="1" max="3" min="3" width="12.44140625"/>
-    <col customWidth="1" max="4" min="4" width="14.44140625"/>
-    <col customWidth="1" max="5" min="5" width="12.33203125"/>
-    <col customWidth="1" max="6" min="6" width="12.21875"/>
+    <col min="1" max="1" width="27" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.77734375" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>23</v>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="88.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>404</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="60.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3">
+        <v>500</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>200</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
+      <c r="I3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>